--- a/public/preprocessing/@stfurnotjeno.xlsx
+++ b/public/preprocessing/@stfurnotjeno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20673</v>
+        <v>24728</v>
       </c>
       <c r="C2" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sumpah ini gue kaya maksa gak sih kesan nya ya allah emang dasarnya gabisa tapi maksa soalnya gabut</t>
+          <t>gatau pak sumpah ini zoom nya ga kedengeran suaranyaaa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['sumpah', 'ini', 'gue', 'kaya', 'maksa', 'gak', 'sih', 'kesan', 'nya', 'ya', 'allah', 'emang', 'dasarnya', 'gabisa', 'tapi', 'maksa', 'soalnya', 'gabut']</t>
+          <t>['gatau', 'pak', 'sumpah', 'ini', 'zoom', 'nya', 'ga', 'kedengeran', 'suaranyaaa']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tak, tau', 'pak', 'sumpah', 'ini', 'zoom', 'nya', 'tidak', 'kedengaran', 'suaranyaaa']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['sumpah', 'gue', 'kaya', 'maksa', 'kesan', 'allah', 'emang', 'dasarnya', 'gabisa', 'maksa', 'gabut']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['sumpah', 'gue', 'kaya', 'maksa', 'kesan', 'allah', 'emang', 'dasar', 'gabisa', 'maksa', 'gabut']</t>
+          <t>['tak, tau', 'sumpah', 'zoom', 'kedengaran', 'suaranyaaa']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['tak tau', 'sumpah', 'zoom', 'dengar', 'suaranyaaa']</t>
         </is>
       </c>
     </row>
@@ -511,30 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20674</v>
+        <v>24729</v>
       </c>
       <c r="C3" t="n">
-        <v>251</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aaanjrottt</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['aaanjrottt']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['aaanjrottt']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['aaanjrottt']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['aaanjrottt']</t>
         </is>
       </c>
     </row>
@@ -543,34 +562,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20675</v>
+        <v>24730</v>
       </c>
       <c r="C4" t="n">
-        <v>251</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>apalagi punya gue</t>
-        </is>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['apalagi', 'punya', 'gue']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['gue']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['gue']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -579,34 +599,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20676</v>
+        <v>24731</v>
       </c>
       <c r="C5" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>mending striming cocomelon</t>
+          <t>anjritt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['mending', 'striming', 'cocomelon']</t>
+          <t>['anjritt']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['anjritt']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['mending', 'striming', 'cocomelon']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['mending', 'striming', 'cocomelon']</t>
+          <t>['anjritt']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['anjritt']</t>
         </is>
       </c>
     </row>
@@ -615,34 +640,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20677</v>
+        <v>24732</v>
       </c>
       <c r="C6" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>banget</t>
+          <t>hah gue gatau ini baca surat apaaa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['banget']</t>
+          <t>['hah', 'gue', 'gatau', 'ini', 'baca', 'surat', 'apaaa']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ha', 'gue', 'tak, tau', 'ini', 'baca', 'surat', 'apa']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['banget']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['banget']</t>
+          <t>['ha', 'gue', 'tak, tau', 'baca', 'surat']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['ha', 'gue', 'tak tau', 'baca', 'surat']</t>
         </is>
       </c>
     </row>
@@ -651,34 +681,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20678</v>
+        <v>24733</v>
       </c>
       <c r="C7" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>keluar darahnya anjj</t>
+          <t>sinii</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['keluar', 'darahnya', 'anjj']</t>
+          <t>['sinii']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sinii']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['darahnya', 'anjj']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['darah', 'anjj']</t>
+          <t>['sinii']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['sini']</t>
         </is>
       </c>
     </row>
@@ -687,34 +722,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20679</v>
+        <v>24734</v>
       </c>
       <c r="C8" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>kok bisa</t>
+          <t>soft friendly poll gemes</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['kok', 'bisa']</t>
+          <t>['soft', 'friendly', 'poll', 'gemes']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['lembut', 'friendly', 'pol', 'gemas']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lembut', 'friendly', 'pol', 'gemas']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['lembut', 'friendly', 'pol', 'gemas']</t>
         </is>
       </c>
     </row>
@@ -723,34 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20680</v>
+        <v>24735</v>
       </c>
       <c r="C9" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bangsat ada cicak mati anjenggg</t>
+          <t>ya allah smoga beneran dibeliin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['bangsat', 'ada', 'cicak', 'mati', 'anjenggg']</t>
+          <t>['ya', 'allah', 'smoga', 'beneran', 'dibeliin']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['ya', 'allah', 'semoga', 'benaran', 'dibelikan']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['bangsat', 'cicak', 'mati', 'anjenggg']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['bangsat', 'cicak', 'mati', 'anjenggg']</t>
+          <t>['allah', 'semoga', 'benaran', 'dibelikan']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['allah', 'moga', 'benar', 'beli']</t>
         </is>
       </c>
     </row>
@@ -759,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20681</v>
+        <v>24736</v>
       </c>
       <c r="C10" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sumpah gabut bgt gue anjir</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['sumpah', 'gabut', 'bgt', 'gue', 'anjir']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['sumpah', 'gabut', 'bgt', 'gue', 'anjir']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['sumpah', 'gabut', 'bgt', 'gue', 'anjir']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -795,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20682</v>
+        <v>24737</v>
       </c>
       <c r="C11" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>oink oink oink</t>
+          <t xml:space="preserve">eh ada guru mtk bu min  love </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['oink', 'oink', 'oink']</t>
+          <t>['eh', 'ada', 'guru', 'mtk', 'bu', 'min', 'love']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 3 outcomes&gt;</t>
+          <t>['eh', 'ada', 'guru', 'matematika', 'bu', 'min', 'love']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['oink', 'oink', 'oink']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['oink', 'oink', 'oink']</t>
+          <t>['eh', 'guru', 'matematika', 'bu', 'min', 'love']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['eh', 'guru', 'matematika', 'bu', 'min', 'love']</t>
         </is>
       </c>
     </row>
@@ -831,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20683</v>
+        <v>24738</v>
       </c>
       <c r="C12" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ada babi</t>
+          <t>fisika flop ew</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['ada', 'babi']</t>
+          <t>['fisika', 'flop', 'ew']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['fisika', 'flop', 'ngewe']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['babi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['babi']</t>
+          <t>['fisika', 'flop', 'ngewe']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['fisika', 'flop', 'ngewe']</t>
         </is>
       </c>
     </row>
@@ -867,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20684</v>
+        <v>24739</v>
       </c>
       <c r="C13" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>gue wkwk</t>
+          <t>duh males males fisika flop</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['gue', 'wkwk']</t>
+          <t>['duh', 'males', 'males', 'fisika', 'flop']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['aduh', 'malas', 'malas', 'fisika', 'flop']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['gue', 'wkwk']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['gue', 'wkwk']</t>
+          <t>['aduh', 'malas', 'malas', 'fisika', 'flop']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['aduh', 'malas', 'malas', 'fisika', 'flop']</t>
         </is>
       </c>
     </row>
@@ -903,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20685</v>
+        <v>24740</v>
       </c>
       <c r="C14" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>kece nak osis</t>
+          <t>anjir kok ada tugas fisika</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['kece', 'nak', 'osis']</t>
+          <t>['anjir', 'kok', 'ada', 'tugas', 'fisika']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['anjir', 'kok', 'ada', 'tugas', 'fisika']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['kece', 'nak', 'osis']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['kece', 'nak', 'osis']</t>
+          <t>['anjir', 'tugas', 'fisika']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['anjir', 'tugas', 'fisika']</t>
         </is>
       </c>
     </row>
@@ -939,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20686</v>
+        <v>24741</v>
       </c>
       <c r="C15" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>aw gada zoom</t>
+          <t>setaun</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['aw', 'gada', 'zoom']</t>
+          <t>['setaun']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['setaun']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['aw', 'gada', 'zoom']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['aw', 'gada', 'zoom']</t>
+          <t>['setaun']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['taun']</t>
         </is>
       </c>
     </row>
@@ -975,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20687</v>
+        <v>24742</v>
       </c>
       <c r="C16" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>iya sama wkwk</t>
+          <t>ulangan doang dong</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['iya', 'sama', 'wkwk']</t>
+          <t>['ulangan', 'doang', 'dong']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['ulangan', 'doang', 'dong']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['iya', 'wkwk']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['iya', 'wkwk']</t>
+          <t>['ulangan', 'doang']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['ulang', 'doang']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20688</v>
+        <v>24743</v>
       </c>
       <c r="C17" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ide bagus</t>
+          <t>tapi mau lanjut hehe</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['ide', 'bagus']</t>
+          <t>['tapi', 'mau', 'lanjut', 'hehe']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tapi', 'mau', 'lanjut', 'hehe']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['ide', 'bagus']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['ide', 'bagus']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20689</v>
+        <v>24744</v>
       </c>
       <c r="C18" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>gaenak enakan sambil main air</t>
+          <t>apa gatau  ing kayanya</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['gaenak', 'enakan', 'sambil', 'main', 'air']</t>
+          <t>['apa', 'gatau', 'ing', 'kayanya']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['apa', 'tak, tau', 'ing', 'sepertinya']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['gaenak', 'enakan', 'main', 'air']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['gaenak', 'enak', 'main', 'air']</t>
+          <t>['tak, tau', 'ing']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['tak tau', 'ing']</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20690</v>
+        <v>24745</v>
       </c>
       <c r="C19" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sama wkwk</t>
+          <t>udah cape main qrt</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['sama', 'wkwk']</t>
+          <t>['udah', 'cape', 'main', 'qrt']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sudah', 'cape', 'main', 'qrt']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['wkwk']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['wkwk']</t>
+          <t>['cape', 'main', 'qrt']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['cape', 'main', 'qrt']</t>
         </is>
       </c>
     </row>
@@ -1119,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20691</v>
+        <v>24746</v>
       </c>
       <c r="C20" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>mampus</t>
+          <t>ngga alhamdulillah</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mampus']</t>
+          <t>['ngga', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tidak', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['mampus']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['mampus']</t>
+          <t>['alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['alhamdulillah']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20692</v>
+        <v>24747</v>
       </c>
       <c r="C21" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>anjir lupa matiin kompor</t>
+          <t xml:space="preserve"> indo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['anjir', 'lupa', 'matiin', 'kompor']</t>
+          <t>['indo']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['indonesia']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['anjir', 'lupa', 'matiin', 'kompor']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['anjir', 'lupa', 'matiin', 'kompor']</t>
+          <t>['indonesia']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['indonesia']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20693</v>
+        <v>24748</v>
       </c>
       <c r="C22" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>iya</t>
+          <t>mmksut</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['mmksut']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['mmksut']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['iya']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['mmksut']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['mmksut']</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20694</v>
+        <v>24749</v>
       </c>
       <c r="C23" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>laper</t>
+          <t>rumah temen tapi jadinya ga ngerjain tugas nya</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['laper']</t>
+          <t>['rumah', 'temen', 'tapi', 'jadinya', 'ga', 'ngerjain', 'tugas', 'nya']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rumah', 'teman', 'tapi', 'jadinya', 'tidak', 'mengerjakan', 'tugas', 'nya']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['laper']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['laper']</t>
+          <t>['rumah', 'teman', 'tugas']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['rumah', 'teman', 'tugas']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20695</v>
+        <v>24750</v>
       </c>
       <c r="C24" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ya kan gue bisannya sambil bacain baliknya shampo itu</t>
+          <t>apa ya oh haechan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['ya', 'kan', 'gue', 'bisannya', 'sambil', 'bacain', 'baliknya', 'shampo', 'itu']</t>
+          <t>['apa', 'ya', 'oh', 'haechan']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['apa', 'ya', 'oh', 'haechan']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['gue', 'bisannya', 'bacain', 'baliknya', 'shampo']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['gue', 'bisan', 'bacain', 'balik', 'shampo']</t>
+          <t>['oh', 'haechan']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['oh', 'haechan']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20696</v>
+        <v>24751</v>
       </c>
       <c r="C25" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>bingung dha</t>
+          <t>adaa wkwk</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['bingung', 'dha']</t>
+          <t>['adaa', 'wkwk']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['ada', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['bingung', 'dha']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['bingung', 'dha']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20697</v>
+        <v>24752</v>
       </c>
       <c r="C26" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>km ga bawa hp</t>
+          <t>ngga</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['km', 'ga', 'bawa', 'hp']</t>
+          <t>['ngga']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tidak']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['km', 'bawa', 'hp']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['km', 'bawa', 'hp']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20698</v>
+        <v>24753</v>
       </c>
       <c r="C27" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ga anjirr lapoo</t>
+          <t>ngga</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['ga', 'anjirr', 'lapoo']</t>
+          <t>['ngga']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tidak']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['anjirr', 'lapoo']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['anjirr', 'lapoo']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20699</v>
+        <v>24754</v>
       </c>
       <c r="C28" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>kok bisa org boker bawa hp</t>
+          <t>both</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['kok', 'bisa', 'org', 'boker', 'bawa', 'hp']</t>
+          <t>['both']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['both']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['org', 'boker', 'bawa', 'hp']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['org', 'boker', 'bawa', 'hp']</t>
+          <t>['both']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['both']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20700</v>
+        <v>24755</v>
       </c>
       <c r="C29" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ini guru gue zoom ribet sendiri dah</t>
+          <t>mtk</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ini', 'guru', 'gue', 'zoom', 'ribet', 'sendiri', 'dah']</t>
+          <t>['mtk']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['matematika']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['guru', 'gue', 'zoom', 'ribet', 'dah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['guru', 'gue', 'zoom', 'ribet', 'dah']</t>
+          <t>['matematika']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['matematika']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20701</v>
+        <v>24756</v>
       </c>
       <c r="C30" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>gue gaperna tuh</t>
+          <t>ga duanya</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['gue', 'gaperna', 'tuh']</t>
+          <t>['ga', 'duanya']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tidak', 'duanya']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['gue', 'gaperna']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['gue', 'gaperna']</t>
+          <t>['duanya']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['dua']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20702</v>
+        <v>24757</v>
       </c>
       <c r="C31" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>wkwkwkwk</t>
+          <t>kantin terus gedung depan deketnya kelas paling atas wkwk</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['wkwkwkwk']</t>
+          <t>['kantin', 'terus', 'gedung', 'depan', 'deketnya', 'kelas', 'paling', 'atas', 'wkwk']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kantin', 'terus', 'gedung', 'depan', 'deketnya', 'kelas', 'paling', 'atas', 'wkwk']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['wkwkwkwk']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['wkwkwkwk']</t>
+          <t>['kantin', 'gedung', 'deketnya', 'kelas', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kantin', 'gedung', 'deketnya', 'kelas', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20703</v>
+        <v>24758</v>
       </c>
       <c r="C32" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>mau winwin</t>
+          <t>gapunya temen cowo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['mau', 'winwin']</t>
+          <t>['gapunya', 'temen', 'cowo']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidak, punya', 'teman', 'cowok']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['winwin']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['winwin']</t>
+          <t>['tidak, punya', 'teman', 'cowok']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tidak punya', 'teman', 'cowok']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20704</v>
+        <v>24759</v>
       </c>
       <c r="C33" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>mau haechan</t>
+          <t>sering dlu skrg udah jarang</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['mau', 'haechan']</t>
+          <t>['sering', 'dlu', 'skrg', 'udah', 'jarang']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sering', 'dulu', 'sekarang', 'sudah', 'jarang']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['haechan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['haechan']</t>
+          <t>['jarang']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['jarang']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20705</v>
+        <v>24760</v>
       </c>
       <c r="C34" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>mau jeno</t>
+          <t>pernah lah</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['mau', 'jeno']</t>
+          <t>['pernah', 'lah']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['pernah', 'lah']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['jeno']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['jeno']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20706</v>
+        <v>24761</v>
       </c>
       <c r="C35" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>hahahaha gue langsung matiin camera</t>
+          <t>iya</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['hahahaha', 'gue', 'langsung', 'matiin', 'camera']</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['hahahaha', 'gue', 'langsung', 'matiin', 'camera']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['hahahaha', 'gue', 'langsung', 'matiin', 'camera']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20707</v>
+        <v>24762</v>
       </c>
       <c r="C36" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>case gue anj</t>
+          <t>gatau ngga kayanya</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['case', 'gue', 'anj']</t>
+          <t>['gatau', 'ngga', 'kayanya']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['tak, tau', 'tidak', 'sepertinya']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['case', 'gue', 'anj']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['case', 'gue', 'anj']</t>
+          <t>['tak, tau']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['tak tau']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20708</v>
+        <v>24763</v>
       </c>
       <c r="C37" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>gue nangis juga udh gabisa</t>
+          <t>ada tapi gaperna ikut</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['gue', 'nangis', 'juga', 'udh', 'gabisa']</t>
+          <t>['ada', 'tapi', 'gaperna', 'ikut']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ada', 'tapi', 'gaperna', 'ikut']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['gue', 'nangis', 'udh', 'gabisa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['gue', 'nang', 'udh', 'gabisa']</t>
+          <t>['gaperna']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['gaperna']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20709</v>
+        <v>24764</v>
       </c>
       <c r="C38" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ini gue ditinggal sendirian gak dikasih sarapan gimana anjrot</t>
+          <t>gak dong</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['ini', 'gue', 'ditinggal', 'sendirian', 'gak', 'dikasih', 'sarapan', 'gimana', 'anjrot']</t>
+          <t>['gak', 'dong']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['tidak', 'dong']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['gue', 'ditinggal', 'dikasih', 'sarapan', 'gimana', 'anjrot']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['gue', 'tinggal', 'kasih', 'sarap', 'gimana', 'anjrot']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20710</v>
+        <v>24765</v>
       </c>
       <c r="C39" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>gatau</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['gatau']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['tak, tau']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tak, tau']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['tak tau']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20711</v>
+        <v>24766</v>
       </c>
       <c r="C40" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>tugas ipa</t>
+          <t>gamau</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['tugas', 'ipa']</t>
+          <t>['gamau']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidak, mau']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['tugas', 'ipa']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['tugas', 'ipa']</t>
+          <t>['tidak, mau']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['tidak mau']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20712</v>
+        <v>24767</v>
       </c>
       <c r="C41" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>shit jgn lagi plis</t>
+          <t>gila lo gue ga segabut itu buat ngitungin guru satu sekolah</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['shit', 'jgn', 'lagi', 'plis']</t>
+          <t>['gila', 'lo', 'gue', 'ga', 'segabut', 'itu', 'buat', 'ngitungin', 'guru', 'satu', 'sekolah']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['gila', 'kamu', 'gue', 'tidak', 'segabut', 'itu', 'buat', 'ngitungin', 'guru', 'satu', 'sekolah']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['shit', 'plis']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['shit', 'plis']</t>
+          <t>['gila', 'gue', 'segabut', 'ngitungin', 'guru', 'sekolah']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['gila', 'gue', 'segabut', 'ngitungin', 'guru', 'sekolah']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20713</v>
+        <v>24768</v>
       </c>
       <c r="C42" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>iya bener bgt gue paling gabisa</t>
+          <t>pernah</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['iya', 'bener', 'bgt', 'gue', 'paling', 'gabisa']</t>
+          <t>['pernah']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['pernah']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['iya', 'bener', 'bgt', 'gue', 'gabisa']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['iya', 'bener', 'bgt', 'gue', 'gabisa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20714</v>
+        <v>24769</v>
       </c>
       <c r="C43" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>frustasi</t>
+          <t>pernah kayanya wkwk</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['frustasi']</t>
+          <t>['pernah', 'kayanya', 'wkwk']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['pernah', 'sepertinya', 'wkwk']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['frustasi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['frustasi']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20715</v>
+        <v>24770</v>
       </c>
       <c r="C44" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>wifi nya ajg</t>
+          <t>pernah</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['wifi', 'nya', 'ajg']</t>
+          <t>['pernah']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['pernah']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['wifi', 'ajg']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['wifi', 'ajg']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2019,30 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20716</v>
+        <v>24771</v>
       </c>
       <c r="C45" t="n">
-        <v>251</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>hari apa ya anjrit lupa jumat apa kamis lupaaa</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hari', 'apa', 'ya', 'anjrit', 'lupa', 'jumat', 'apa', 'kamis', 'lupaaa']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['hari', 'apa', 'ya', 'anjrit', 'lupa', 'jumat', 'apa', 'kamis', 'lupaaa']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['anjrit', 'lupa', 'jumat', 'kamis', 'lupaaa']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['anjrit', 'lupa', 'jumat', 'kamis', 'lupaaa']</t>
         </is>
       </c>
     </row>
@@ -2051,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20717</v>
+        <v>24772</v>
       </c>
       <c r="C46" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>frustasi</t>
+          <t>pernahh lah</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['frustasi']</t>
+          <t>['pernahh', 'lah']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['pernahh', 'lah']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['frustasi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['frustasi']</t>
+          <t>['pernahh']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['pernahh']</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2321,35 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20718</v>
+        <v>24773</v>
       </c>
       <c r="C47" t="n">
-        <v>251</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>kita remaja yg sedang di mabuk tugas</t>
-        </is>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['kita', 'remaja', 'yg', 'sedang', 'di', 'mabuk', 'tugas']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['remaja', 'mabuk', 'tugas']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['remaja', 'mabuk', 'tugas']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2123,34 +2358,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20719</v>
+        <v>24774</v>
       </c>
       <c r="C48" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>to qrt gaib kamu membuatku penasaran</t>
+          <t>minta tinta spidol klo ga bayar spp yakan lupa gue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['to', 'qrt', 'gaib', 'kamu', 'membuatku', 'penasaran']</t>
+          <t>['minta', 'tinta', 'spidol', 'klo', 'ga', 'bayar', 'spp', 'yakan', 'lupa', 'gue']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['meminta', 'tinta', 'spidol', 'kalau', 'tidak', 'bayar', 'spp', 'iyakan', 'lupa', 'gue']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['to', 'qrt', 'gaib', 'membuatku', 'penasaran']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['to', 'qrt', 'gaib', 'buat', 'penasaran']</t>
+          <t>['tinta', 'spidol', 'bayar', 'spp', 'iyakan', 'lupa', 'gue']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['tinta', 'spidol', 'bayar', 'spp', 'iya', 'lupa', 'gue']</t>
         </is>
       </c>
     </row>
@@ -2159,34 +2399,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20720</v>
+        <v>24775</v>
       </c>
       <c r="C49" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>gatau ajg gada rankingan</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['gatau', 'ajg', 'gada', 'rankingan']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tak, tau', 'anjing', 'tidak, ada', 'rankingan']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tak, tau', 'anjing', 'tidak, ada', 'rankingan']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['tak tau', 'anjing', 'tidak ada', 'rankingan']</t>
         </is>
       </c>
     </row>
@@ -2195,34 +2440,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20721</v>
+        <v>24776</v>
       </c>
       <c r="C50" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>frustasi sama tugas ipa</t>
+          <t>hadir klo pas jam nya bhs arab hadiroh</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['frustasi', 'sama', 'tugas', 'ipa']</t>
+          <t>['hadir', 'klo', 'pas', 'jam', 'nya', 'bhs', 'arab', 'hadiroh']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['hadir', 'kalau', 'pas', 'jam', 'nya', 'bahas', 'arab', 'hadiroh']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['frustasi', 'tugas', 'ipa']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['frustasi', 'tugas', 'ipa']</t>
+          <t>['hadir', 'pas', 'jam', 'bahas', 'arab', 'hadiroh']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['hadir', 'pas', 'jam', 'bahas', 'arab', 'hadiroh']</t>
         </is>
       </c>
     </row>
@@ -2231,30 +2481,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20722</v>
+        <v>24777</v>
       </c>
       <c r="C51" t="n">
-        <v>251</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>gapernah maksutnya</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gapernah', 'maksutnya']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tidak, pernah', 'maksudnya']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tidak, pernah', 'maksudnya']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['tidak pernah', 'maksud']</t>
         </is>
       </c>
     </row>
@@ -2263,34 +2522,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20723</v>
+        <v>24778</v>
       </c>
       <c r="C52" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt brj aku datang</t>
+          <t>ga duanya</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'brj', 'aku', 'datang']</t>
+          <t>['ga', 'duanya']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tidak', 'duanya']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['brj']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['brj']</t>
+          <t>['duanya']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['dua']</t>
         </is>
       </c>
     </row>
@@ -2299,34 +2563,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20724</v>
+        <v>24779</v>
       </c>
       <c r="C53" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>senyum sehat semangat basi anjeng</t>
+          <t>gada yg kenal sm gue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['senyum', 'sehat', 'semangat', 'basi', 'anjeng']</t>
+          <t>['gada', 'yg', 'kenal', 'sm', 'gue']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['tidak, ada', 'yang', 'kenal', 'sama', 'gue']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['senyum', 'sehat', 'semangat', 'basi', 'anjeng']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['senyum', 'sehat', 'semangat', 'basi', 'anjeng']</t>
+          <t>['tidak, ada', 'kenal', 'gue']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['tidak ada', 'kenal', 'gue']</t>
         </is>
       </c>
     </row>
@@ -2335,34 +2604,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20725</v>
+        <v>24780</v>
       </c>
       <c r="C54" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>iya udah plis</t>
+          <t>both</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['iya', 'udah', 'plis']</t>
+          <t>['both']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['both']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['iya', 'udah', 'plis']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['iya', 'udah', 'plis']</t>
+          <t>['both']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['both']</t>
         </is>
       </c>
     </row>
@@ -2371,34 +2645,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20726</v>
+        <v>24781</v>
       </c>
       <c r="C55" t="n">
-        <v>251</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>sama aja bodoh ah</t>
-        </is>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['sama', 'aja', 'bodoh', 'ah']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['bodoh', 'ah']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['bodoh', 'ah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2407,34 +2682,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20727</v>
+        <v>24782</v>
       </c>
       <c r="C56" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ahahwhsjwbzubwhsjwjwbsjwbskejbsjsbehs</t>
+          <t>eh apa ya kayanya pernah lupa</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['ahahwhsjwbzubwhsjwjwbsjwbskejbsjsbehs']</t>
+          <t>['eh', 'apa', 'ya', 'kayanya', 'pernah', 'lupa']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['eh', 'apa', 'ya', 'sepertinya', 'pernah', 'lupa']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['ahahwhsjwbzubwhsjwjwbsjwbskejbsjsbehs']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['ahahwhsjwbzubwhsjwjwbsjwbskejbsjsbehs']</t>
+          <t>['eh', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['eh', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -2443,34 +2723,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20728</v>
+        <v>24783</v>
       </c>
       <c r="C57" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>anjeng musnah ae lo</t>
+          <t>pernah masuk doang gada kasus</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['anjeng', 'musnah', 'ae', 'lo']</t>
+          <t>['pernah', 'masuk', 'doang', 'gada', 'kasus']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pernah', 'masuk', 'doang', 'tidak, ada', 'kasus']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['anjeng', 'musnah', 'ae', 'lo']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['anjeng', 'musnah', 'ae', 'lo']</t>
+          <t>['masuk', 'doang', 'tidak, ada']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['masuk', 'doang', 'tidak ada']</t>
         </is>
       </c>
     </row>
@@ -2479,34 +2764,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20729</v>
+        <v>24784</v>
       </c>
       <c r="C58" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>dbhwbshzbajabajsnansnsbdjebshwhshwbabsjsbwhshwnsbhznwnsjsbwjdubejdnsnsjajs</t>
+          <t>gak mesti</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['dbhwbshzbajabajsnansnsbdjebshwhshwbabsjsbwhshwnsbhznwnsjsbwjdubejdnsnsjajs']</t>
+          <t>['gak', 'mesti']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tidak', 'mesti']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['dbhwbshzbajabajsnansnsbdjebshwhshwbabsjsbwhshwnsbhznwnsjsbwjdubejdnsnsjajs']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['dbhwbshzbajabajsnansnsbdjebshwhshwbabsjsbwhshwnsbhznwnsjsbwjdubejdnsnsjajs']</t>
+          <t>['mesti']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['mesti']</t>
         </is>
       </c>
     </row>
@@ -2515,34 +2805,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20730</v>
+        <v>24785</v>
       </c>
       <c r="C59" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>duhh pusing udahan aja lah daring ga selese asu</t>
+          <t>berdua</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['duhh', 'pusing', 'udahan', 'aja', 'lah', 'daring', 'ga', 'selese', 'asu']</t>
+          <t>['berdua']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['berdua']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['duhh', 'pusing', 'udahan', 'daring', 'selese', 'asu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['duhh', 'pusing', 'udahan', 'daring', 'selese', 'asu']</t>
+          <t>['berdua']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['dua']</t>
         </is>
       </c>
     </row>
@@ -2551,34 +2846,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20731</v>
+        <v>24786</v>
       </c>
       <c r="C60" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>pusing bhs arab</t>
+          <t>motor klo ga mobil</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['pusing', 'bhs', 'arab']</t>
+          <t>['motor', 'klo', 'ga', 'mobil']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['motor', 'kalau', 'tidak', 'mobil']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['pusing', 'bhs', 'arab']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['pusing', 'bhs', 'arab']</t>
+          <t>['motor', 'mobil']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['motor', 'mobil']</t>
         </is>
       </c>
     </row>
@@ -2587,34 +2887,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20732</v>
+        <v>24787</v>
       </c>
       <c r="C61" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ga pahaaam</t>
+          <t>pernahh</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['ga', 'pahaaam']</t>
+          <t>['pernahh']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['pernahh']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['pahaaam']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['pahaaam']</t>
+          <t>['pernahh']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['pernahh']</t>
         </is>
       </c>
     </row>
@@ -2623,34 +2928,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20733</v>
+        <v>24788</v>
       </c>
       <c r="C62" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt praying circle semoga</t>
+          <t>pernah</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'praying', 'circle', 'semoga']</t>
+          <t>['pernah']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pernah']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['praying', 'circle', 'semoga']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['praying', 'circle', 'moga']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2659,28 +2969,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20734</v>
+        <v>24789</v>
       </c>
       <c r="C63" t="n">
-        <v>251</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>pernah dong</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>['pernah', 'dong']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['pernah', 'dong']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2691,34 +3010,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20735</v>
+        <v>24790</v>
       </c>
       <c r="C64" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>halah bangsat</t>
+          <t>tidur main ke kantin</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['halah', 'bangsat']</t>
+          <t>['tidur', 'main', 'ke', 'kantin']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidur', 'main', 'ke', 'kantin']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['halah', 'bangsat']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['halah', 'bangsat']</t>
+          <t>['tidur', 'main', 'kantin']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['tidur', 'main', 'kantin']</t>
         </is>
       </c>
     </row>
@@ -2727,34 +3051,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20736</v>
+        <v>24791</v>
       </c>
       <c r="C65" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>tolol dha ajg</t>
+          <t>gak</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['tolol', 'dha', 'ajg']</t>
+          <t>['gak']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tidak']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['tolol', 'dha', 'ajg']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['tolol', 'dha', 'ajg']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2763,34 +3092,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20737</v>
+        <v>24792</v>
       </c>
       <c r="C66" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ganteng bagi no wassaf nya dong</t>
+          <t>jurnalistik yg gajelas</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['ganteng', 'bagi', 'no', 'wassaf', 'nya', 'dong']</t>
+          <t>['jurnalistik', 'yg', 'gajelas']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['jurnalistik', 'yang', 'tidak, jelas']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['ganteng', 'no', 'wassaf']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['ganteng', 'no', 'wassaf']</t>
+          <t>['jurnalistik', 'tidak, jelas']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['jurnalistik', 'tidak jelas']</t>
         </is>
       </c>
     </row>
@@ -2799,34 +3133,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20738</v>
+        <v>24793</v>
       </c>
       <c r="C67" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>kiw</t>
+          <t>kangennn</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kiw']</t>
+          <t>['kangennn']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['kangen']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['kiw']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['kiw']</t>
+          <t>['kangen']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['kangen']</t>
         </is>
       </c>
     </row>
@@ -2835,34 +3174,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20739</v>
+        <v>24794</v>
       </c>
       <c r="C68" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>kiw couo</t>
+          <t>iya kadang klo ngga ke toilet</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['kiw', 'couo']</t>
+          <t>['iya', 'kadang', 'klo', 'ngga', 'ke', 'toilet']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['iya', 'kadang', 'kalau', 'tidak', 'ke', 'toilet']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['kiw', 'couo']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['kiw', 'couo']</t>
+          <t>['iya', 'kadang', 'toilet']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['iya', 'kadang', 'toilet']</t>
         </is>
       </c>
     </row>
@@ -2871,34 +3215,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20740</v>
+        <v>24795</v>
       </c>
       <c r="C69" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>winwin</t>
+          <t>klo smp kayanya ga pernah deh lupa gue klo pas sd bersihin kamar mandi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['winwin']</t>
+          <t>['klo', 'smp', 'kayanya', 'ga', 'pernah', 'deh', 'lupa', 'gue', 'klo', 'pas', 'sd', 'bersihin', 'kamar', 'mandi']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kalau', 'sampai', 'sepertinya', 'tidak', 'pernah', 'deh', 'lupa', 'gue', 'kalau', 'pas', 'sekolah, dasar', 'bersihkan', 'kamar', 'mandi']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['winwin']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['winwin']</t>
+          <t>['deh', 'lupa', 'gue', 'pas', 'sekolah, dasar', 'bersihkan', 'kamar', 'mandi']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['deh', 'lupa', 'gue', 'pas', 'sekolah dasar', 'sih', 'kamar', 'mandi']</t>
         </is>
       </c>
     </row>
@@ -2907,34 +3256,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20741</v>
+        <v>24796</v>
       </c>
       <c r="C70" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>oke oke ini main acc gue</t>
+          <t>pernah salah manggil orang</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['oke', 'oke', 'ini', 'main', 'acc', 'gue']</t>
+          <t>['pernah', 'salah', 'manggil', 'orang']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['pernah', 'salah', 'memanggil', 'orang']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['oke', 'oke', 'main', 'acc', 'gue']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['oke', 'oke', 'main', 'acc', 'gue']</t>
+          <t>['salah', 'memanggil', 'orang']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['salah', 'panggil', 'orang']</t>
         </is>
       </c>
     </row>
@@ -2943,34 +3297,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20742</v>
+        <v>24797</v>
       </c>
       <c r="C71" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>mau gue udh belom</t>
+          <t>brapa ya  punya sirkel</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['mau', 'gue', 'udh', 'belom']</t>
+          <t>['brapa', 'ya', 'punya', 'sirkel']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['berapa', 'ya', 'punya', 'sirkel']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['gue', 'udh', 'belom']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['gue', 'udh', 'bom']</t>
+          <t>['sirkel']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['sirkel']</t>
         </is>
       </c>
     </row>
@@ -2979,34 +3338,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20743</v>
+        <v>24798</v>
       </c>
       <c r="C72" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>oke</t>
+          <t>gada</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['oke']</t>
+          <t>['gada']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['tidak, ada']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['oke']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['oke']</t>
+          <t>['tidak, ada']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['tidak ada']</t>
         </is>
       </c>
     </row>
@@ -3015,30 +3379,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20744</v>
+        <v>24799</v>
       </c>
       <c r="C73" t="n">
-        <v>251</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>gada  ing</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gada', 'ing']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tidak, ada', 'ing']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tidak, ada', 'ing']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['tidak ada', 'ing']</t>
         </is>
       </c>
     </row>
@@ -3047,34 +3420,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20745</v>
+        <v>24800</v>
       </c>
       <c r="C74" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>gue ada bentar</t>
+          <t>pernah apa ya lupa anjrit</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['gue', 'ada', 'bentar']</t>
+          <t>['pernah', 'apa', 'ya', 'lupa', 'anjrit']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['pernah', 'apa', 'ya', 'lupa', 'anjrit']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['gue', 'bentar']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['gue', 'bentar']</t>
+          <t>['lupa', 'anjrit']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['lupa', 'anjrit']</t>
         </is>
       </c>
     </row>
@@ -3083,34 +3461,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20746</v>
+        <v>24801</v>
       </c>
       <c r="C75" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>gimana sih bodoh udh dijelasin panjang masih nanya tugas nya apa</t>
+          <t>klo offline jam jam an klo ga salah lupa</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['gimana', 'sih', 'bodoh', 'udh', 'dijelasin', 'panjang', 'masih', 'nanya', 'tugas', 'nya', 'apa']</t>
+          <t>['klo', 'offline', 'jam', 'jam', 'an', 'klo', 'ga', 'salah', 'lupa']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['kalau', 'offline', 'jam', 'jam', 'an', 'kalau', 'tidak', 'salah', 'lupa']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['gimana', 'bodoh', 'udh', 'dijelasin', 'nanya', 'tugas']</t>
+          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['gimana', 'bodoh', 'udh', 'dijelasin', 'nanya', 'tugas']</t>
+          <t>['offline', 'jam', 'jam', 'an', 'salah', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['offline', 'jam', 'jam', 'an', 'salah', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -3119,34 +3502,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20747</v>
+        <v>24802</v>
       </c>
       <c r="C76" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>oiya tugas ipa belom semua anjir</t>
+          <t>mau main qrt</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['oiya', 'tugas', 'ipa', 'belom', 'semua', 'anjir']</t>
+          <t>['mau', 'main', 'qrt']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['mau', 'main', 'qrt']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['oiya', 'tugas', 'ipa', 'belom', 'anjir']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['oiya', 'tugas', 'ipa', 'bom', 'anjir']</t>
+          <t>['main', 'qrt']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['main', 'qrt']</t>
         </is>
       </c>
     </row>
@@ -3155,34 +3543,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20748</v>
+        <v>24803</v>
       </c>
       <c r="C77" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>anjeng mata gue kenapa lewat tl sih wjdhsjsnsjsaja</t>
+          <t>no pap hoax</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['anjeng', 'mata', 'gue', 'kenapa', 'lewat', 'tl', 'sih', 'wjdhsjsnsjsaja']</t>
+          <t>['no', 'pap', 'hoax']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['no', 'pap', 'hoaks']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['anjeng', 'mata', 'gue', 'tl', 'wjdhsjsnsjsaja']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['anjeng', 'mata', 'gue', 'tl', 'wjdhsjsnsjsaja']</t>
+          <t>['no', 'pap', 'hoaks']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['no', 'pap', 'hoaks']</t>
         </is>
       </c>
     </row>
@@ -3191,34 +3584,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20749</v>
+        <v>24804</v>
       </c>
       <c r="C78" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>sabar ya</t>
+          <t>kemana ajaa</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['sabar', 'ya']</t>
+          <t>['kemana', 'ajaa']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['kemana', 'saja']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['sabar']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['sabar']</t>
+          <t>['kemana']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['mana']</t>
         </is>
       </c>
     </row>
@@ -3227,34 +3625,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20750</v>
+        <v>24805</v>
       </c>
       <c r="C79" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>loh anjir gue kesiangan</t>
+          <t>anjing gue kepleset</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['loh', 'anjir', 'gue', 'kesiangan']</t>
+          <t>['anjing', 'gue', 'kepleset']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['anjing', 'gue', 'kepleset']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['anjir', 'gue', 'kesiangan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['anjir', 'gue', 'siang']</t>
+          <t>['anjing', 'gue', 'kepleset']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['anjing', 'gue', 'kepleset']</t>
         </is>
       </c>
     </row>
@@ -3263,34 +3666,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20751</v>
+        <v>24806</v>
       </c>
       <c r="C80" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>kok lgsg nya</t>
+          <t>rt nct  the th sense mv hits million views thank you for your love and support</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['kok', 'lgsg', 'nya']</t>
+          <t>['rt', 'nct', 'the', 'th', 'sense', 'mv', 'hits', 'million', 'views', 'thank', 'you', 'for', 'your', 'love', 'and', 'support']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'nct', 'the', 'tahun', 'sense', 'video, musik', 'hit', 'million', 'views', 'terima, kasih', 'kamu', 'for', 'your', 'love', 'and', 'support']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['lgsg']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['lgsg']</t>
+          <t>['nct', 'the', 'sense', 'video, musik', 'hit', 'million', 'views', 'terima, kasih', 'for', 'your', 'love', 'and', 'support']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['nct', 'the', 'sense', 'video musik', 'hit', 'million', 'views', 'terima kasih', 'for', 'your', 'love', 'and', 'support']</t>
         </is>
       </c>
     </row>
@@ -3299,34 +3707,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20752</v>
+        <v>24807</v>
       </c>
       <c r="C81" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>loh gue kan udh follo perasaan</t>
+          <t>rt such  cutie</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['loh', 'gue', 'kan', 'udh', 'follo', 'perasaan']</t>
+          <t>['rt', 'such', 'cutie']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'such', 'cutie']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['gue', 'udh', 'follo', 'perasaan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['gue', 'udh', 'follo', 'asa']</t>
+          <t>['such', 'cutie']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['such', 'cutie']</t>
         </is>
       </c>
     </row>
@@ -3335,34 +3748,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20753</v>
+        <v>24808</v>
       </c>
       <c r="C82" t="n">
-        <v>251</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>tugas gue yg belom apa sih</t>
-        </is>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['tugas', 'gue', 'yg', 'belom', 'apa', 'sih']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['tugas', 'gue', 'belom']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['tugas', 'gue', 'bom']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3371,34 +3785,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20754</v>
+        <v>24809</v>
       </c>
       <c r="C83" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>beneran pgn bgt yg kaya haechan sisain satuu aja buat gue</t>
+          <t>smaller</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['beneran', 'pgn', 'bgt', 'yg', 'kaya', 'haechan', 'sisain', 'satuu', 'aja', 'buat', 'gue']</t>
+          <t>['smaller']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['smaller']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['beneran', 'pgn', 'bgt', 'kaya', 'haechan', 'sisain', 'satuu', 'gue']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['beneran', 'pgn', 'bgt', 'kaya', 'haechan', 'sisain', 'satuu', 'gue']</t>
+          <t>['smaller']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['smaller']</t>
         </is>
       </c>
     </row>
@@ -3407,30 +3826,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20755</v>
+        <v>24810</v>
       </c>
       <c r="C84" t="n">
-        <v>251</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>rt  mc behind</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'mc', 'behind']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'mc', 'behind']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mc', 'behind']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['mc', 'behind']</t>
         </is>
       </c>
     </row>
@@ -3439,34 +3867,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20756</v>
+        <v>24811</v>
       </c>
       <c r="C85" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt just how fast the night changes</t>
+          <t>ih anjir lucu aku wes ganiat main ig</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'just', 'how', 'fast', 'the', 'night', 'changes']</t>
+          <t>['ih', 'anjir', 'lucu', 'aku', 'wes', 'ganiat', 'main', 'ig']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['ih', 'anjir', 'lucu', 'aku', 'sudah', 'ganiat', 'main', 'instagram']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['just', 'how', 'fast', 'the', 'night', 'changes']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['just', 'how', 'fast', 'the', 'night', 'changes']</t>
+          <t>['ih', 'anjir', 'lucu', 'ganiat', 'main', 'instagram']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['ih', 'anjir', 'lucu', 'ganiat', 'main', 'instagram']</t>
         </is>
       </c>
     </row>
@@ -3475,30 +3908,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20757</v>
+        <v>24812</v>
       </c>
       <c r="C86" t="n">
-        <v>251</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ih keren bgt udah pada di dm kaya gitu huhu aku kapan ga maju</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ih', 'keren', 'bgt', 'udah', 'pada', 'di', 'dm', 'kaya', 'gitu', 'huhu', 'aku', 'kapan', 'ga', 'maju']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ih', 'keren', 'banget', 'sudah', 'pada', 'di', 'direct, message', 'kayak', 'begitu', 'huhu', 'aku', 'kapan', 'tidak', 'maju']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ih', 'keren', 'banget', 'direct, message', 'kayak', 'huhu', 'maju']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['ih', 'keren', 'banget', 'direct message', 'kayak', 'huhu', 'maju']</t>
         </is>
       </c>
     </row>
@@ -3507,30 +3949,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20758</v>
+        <v>24813</v>
       </c>
       <c r="C87" t="n">
-        <v>251</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>yaudah lah bodoamat</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yaudah', 'lah', 'bodoamat']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ya, sudah', 'lah', 'bodoamat']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ya, sudah', 'bodoamat']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['ya sudah', 'bodoamat']</t>
         </is>
       </c>
     </row>
@@ -3539,34 +3990,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20759</v>
+        <v>24814</v>
       </c>
       <c r="C88" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>gapapa serius gapapa</t>
+          <t>bodoh bgt dpt</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['gapapa', 'serius', 'gapapa']</t>
+          <t>['bodoh', 'bgt', 'dpt']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
+          <t>['bodoh', 'banget', 'dapat']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['gapapa', 'serius', 'gapapa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['gapapa', 'serius', 'gapapa']</t>
+          <t>['bodoh', 'banget']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['bodoh', 'banget']</t>
         </is>
       </c>
     </row>
@@ -3575,34 +4031,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20760</v>
+        <v>24815</v>
       </c>
       <c r="C89" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>baru</t>
+          <t>miris paling jelek di kelas</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['baru']</t>
+          <t>['miris', 'paling', 'jelek', 'di', 'kelas']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['miris', 'paling', 'jelek', 'di', 'kelas']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['miris', 'jelek', 'kelas']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['miris', 'jelek', 'kelas']</t>
         </is>
       </c>
     </row>
@@ -3611,34 +4072,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20761</v>
+        <v>24816</v>
       </c>
       <c r="C90" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>anjeng gue batu liat</t>
+          <t>rt winwin lofficiel philippines</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['anjeng', 'gue', 'batu', 'liat']</t>
+          <t>['rt', 'winwin', 'lofficiel', 'philippines']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'winwin', 'lofficiel', 'philippines']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['anjeng', 'gue', 'batu', 'liat']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['anjeng', 'gue', 'batu', 'liat']</t>
+          <t>['winwin', 'lofficiel', 'philippines']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['winwin', 'lofficiel', 'philippines']</t>
         </is>
       </c>
     </row>
@@ -3647,34 +4113,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20762</v>
+        <v>24817</v>
       </c>
       <c r="C91" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt official wayvkick backhitchhiker ver </t>
+          <t>ini apaan anjir</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'official', 'wayvkick', 'backhitchhiker', 'ver']</t>
+          <t>['ini', 'apaan', 'anjir']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ini', 'apaan', 'anjir']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['official', 'wayvkick', 'backhitchhiker', 'ver']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['official', 'wayvkick', 'backhitchhiker', 'ver']</t>
+          <t>['anjir']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['anjir']</t>
         </is>
       </c>
     </row>
@@ -3683,34 +4154,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20763</v>
+        <v>24818</v>
       </c>
       <c r="C92" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt official wayvkick back the rd mini albumconcept imageshitchhiker ver </t>
+          <t>kir susah bgt knapaa</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'official', 'wayvkick', 'back', 'the', 'rd', 'mini', 'albumconcept', 'imageshitchhiker', 'ver']</t>
+          <t>['kir', 'susah', 'bgt', 'knapaa']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kir', 'susah', 'banget', 'knapaa']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['official', 'wayvkick', 'back', 'the', 'rd', 'mini', 'albumconcept', 'imageshitchhiker', 'ver']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['official', 'wayvkick', 'back', 'the', 'rd', 'mini', 'albumconcept', 'imageshitchhiker', 'ver']</t>
+          <t>['kir', 'susah', 'banget', 'knapaa']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['kir', 'susah', 'banget', 'knapaa']</t>
         </is>
       </c>
     </row>
@@ -3719,34 +4195,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20764</v>
+        <v>24819</v>
       </c>
       <c r="C93" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>gppa win sumpah gppa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['gppa', 'win', 'sumpah', 'gppa']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['gppa', 'menang', 'sumpah', 'gppa']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gppa', 'menang', 'sumpah', 'gppa']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['gppa', 'menang', 'sumpah', 'gppa']</t>
         </is>
       </c>
     </row>
@@ -3755,34 +4236,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20765</v>
+        <v>24820</v>
       </c>
       <c r="C94" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>sampe diingetin di grup anjeng</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['sampe', 'diingetin', 'di', 'grup', 'anjeng']</t>
+          <t>['ok']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['oke']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['sampe', 'diingetin', 'grup', 'anjeng']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['sampe', 'diingetin', 'grup', 'anjeng']</t>
+          <t>['oke']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['oke']</t>
         </is>
       </c>
     </row>
@@ -3791,34 +4277,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20766</v>
+        <v>24821</v>
       </c>
       <c r="C95" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>gabisa</t>
+          <t>ya allah</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['gabisa']</t>
+          <t>['ya', 'allah']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ya', 'allah']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['gabisa']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['gabisa']</t>
+          <t>['allah']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['allah']</t>
         </is>
       </c>
     </row>
@@ -3827,34 +4318,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20767</v>
+        <v>24822</v>
       </c>
       <c r="C96" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ok</t>
+          <t>astaghfirullah</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['ok']</t>
+          <t>['astaghfirullah']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['astagfirullah']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['ok']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['ok']</t>
+          <t>['astagfirullah']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['astagfirullah']</t>
         </is>
       </c>
     </row>
@@ -3863,34 +4359,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20768</v>
+        <v>24823</v>
       </c>
       <c r="C97" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>udah anjir astaghfirullah</t>
+          <t>astaghfirullah winwin</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['udah', 'anjir', 'astaghfirullah']</t>
+          <t>['astaghfirullah', 'winwin']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['astagfirullah', 'winwin']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['udah', 'anjir', 'astaghfirullah']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['udah', 'anjir', 'astaghfirullah']</t>
+          <t>['astagfirullah', 'winwin']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['astagfirullah', 'winwin']</t>
         </is>
       </c>
     </row>
@@ -3899,34 +4400,35 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20769</v>
+        <v>24824</v>
       </c>
       <c r="C98" t="n">
-        <v>251</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>sumpah guru ski sama kir tuh aksnzjsnshwjbsja kenapa sih</t>
-        </is>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['sumpah', 'guru', 'ski', 'sama', 'kir', 'tuh', 'aksnzjsnshwjbsja', 'kenapa', 'sih']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['sumpah', 'guru', 'ski', 'kir', 'aksnzjsnshwjbsja']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['sumpah', 'guru', 'ski', 'kir', 'aksnzjsnshwjbsja']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3935,106 +4437,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20770</v>
+        <v>24825</v>
       </c>
       <c r="C99" t="n">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>udh gaseru lagi</t>
+          <t>males bgt anjir filter nya gabisa</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['udh', 'gaseru', 'lagi']</t>
+          <t>['males', 'bgt', 'anjir', 'filter', 'nya', 'gabisa']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['malas', 'banget', 'anjir', 'filter', 'nya', 'tidak, bisa']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['udh', 'gaseru']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['udh', 'gaseru']</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>20771</v>
-      </c>
-      <c r="C100" t="n">
-        <v>251</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>ih kok gemes</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>['ih', 'kok', 'gemes']</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['ih', 'gemes']</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>['ih', 'gemes']</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>20772</v>
-      </c>
-      <c r="C101" t="n">
-        <v>251</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>sudah sudah</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['sudah', 'sudah']</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['malas', 'banget', 'anjir', 'filter', 'tidak, bisa']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['malas', 'banget', 'anjir', 'filter', 'tidak bisa']</t>
         </is>
       </c>
     </row>
